--- a/cuarta_estimacion.xlsx
+++ b/cuarta_estimacion.xlsx
@@ -365,541 +365,541 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111.644753886519</v>
+        <v>99.2943879844679</v>
       </c>
       <c r="B2" t="n">
-        <v>4.93981616076828</v>
+        <v>4.99803302353057</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.00531868090853</v>
+        <v>-0.981178653838128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111.644753886519</v>
+        <v>108.789877390261</v>
       </c>
       <c r="B3" t="n">
-        <v>4.93981616076828</v>
+        <v>4.97285747626109</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.01542242291695</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111.644753886519</v>
+        <v>97.582622746144</v>
       </c>
       <c r="B4" t="n">
-        <v>4.93981616076828</v>
+        <v>5.07176398159257</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.00786703171355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111.644753886519</v>
+        <v>104.838462385339</v>
       </c>
       <c r="B5" t="n">
-        <v>4.93981616076828</v>
+        <v>4.94411054397838</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.00192754774264</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111.644753886519</v>
+        <v>103.572125647279</v>
       </c>
       <c r="B6" t="n">
-        <v>4.93981616076828</v>
+        <v>4.96452942493098</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.00531868090853</v>
+        <v>-0.999414283738036</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111.644753886519</v>
+        <v>86.1231405020212</v>
       </c>
       <c r="B7" t="n">
-        <v>4.93981616076828</v>
+        <v>5.08436016475249</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.00531868090853</v>
+        <v>-0.979814649136807</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111.644753886519</v>
+        <v>114.78233598474</v>
       </c>
       <c r="B8" t="n">
-        <v>4.93981616076828</v>
+        <v>4.92233480309501</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.08002582112757</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111.644753886519</v>
+        <v>95.4616695423</v>
       </c>
       <c r="B9" t="n">
-        <v>4.93981616076828</v>
+        <v>4.95917920844559</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.00531868090853</v>
+        <v>-0.960229926035537</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111.644753886519</v>
+        <v>86.1129348065251</v>
       </c>
       <c r="B10" t="n">
-        <v>4.93981616076828</v>
+        <v>5.03576928683483</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.00531868090853</v>
+        <v>-0.897988095705051</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111.644753886519</v>
+        <v>108.578293157605</v>
       </c>
       <c r="B11" t="n">
-        <v>4.93981616076828</v>
+        <v>4.965249060339</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.04652759733525</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111.644753886519</v>
+        <v>100.875859734758</v>
       </c>
       <c r="B12" t="n">
-        <v>4.93981616076828</v>
+        <v>4.90689379216563</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.00531868090853</v>
+        <v>-0.951905695386759</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111.644753886519</v>
+        <v>91.435193793235</v>
       </c>
       <c r="B13" t="n">
-        <v>4.93981616076828</v>
+        <v>5.01879954831001</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.00531868090853</v>
+        <v>-0.940516119212141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111.644753886519</v>
+        <v>110.467283219363</v>
       </c>
       <c r="B14" t="n">
-        <v>4.93981616076828</v>
+        <v>4.8208708930346</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.00531868090853</v>
+        <v>-0.9880875163916</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111.644753886519</v>
+        <v>103.679326075534</v>
       </c>
       <c r="B15" t="n">
-        <v>4.93981616076828</v>
+        <v>4.8900448031856</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.00531868090853</v>
+        <v>-0.981395151018092</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111.644753886519</v>
+        <v>100.826295629608</v>
       </c>
       <c r="B16" t="n">
-        <v>4.93981616076828</v>
+        <v>4.9882968571994</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.02133507155514</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111.644753886519</v>
+        <v>108.400055201389</v>
       </c>
       <c r="B17" t="n">
-        <v>4.93981616076828</v>
+        <v>4.96954664920239</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.03345519392877</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111.644753886519</v>
+        <v>106.738410898524</v>
       </c>
       <c r="B18" t="n">
-        <v>4.93981616076828</v>
+        <v>4.97658488683806</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.00591194873224</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111.644753886519</v>
+        <v>96.6566062035461</v>
       </c>
       <c r="B19" t="n">
-        <v>4.93981616076828</v>
+        <v>5.00869167583384</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.01929546930714</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111.644753886519</v>
+        <v>101.835669672791</v>
       </c>
       <c r="B20" t="n">
-        <v>4.93981616076828</v>
+        <v>4.92670454609403</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.00531868090853</v>
+        <v>-0.996930593241097</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111.644753886519</v>
+        <v>102.859672094541</v>
       </c>
       <c r="B21" t="n">
-        <v>4.93981616076828</v>
+        <v>4.99870880058756</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.01556468599601</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111.644753886519</v>
+        <v>119.159396499128</v>
       </c>
       <c r="B22" t="n">
-        <v>4.93981616076828</v>
+        <v>4.91396829081298</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.08885447953938</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111.644753886519</v>
+        <v>108.283756532148</v>
       </c>
       <c r="B23" t="n">
-        <v>4.93981616076828</v>
+        <v>4.78267609952565</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.00531868090853</v>
+        <v>-0.92933569293985</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111.644753886519</v>
+        <v>98.2961944796859</v>
       </c>
       <c r="B24" t="n">
-        <v>4.93981616076828</v>
+        <v>4.95508891507813</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.00531868090853</v>
+        <v>-0.957291510870688</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111.644753886519</v>
+        <v>106.184640407918</v>
       </c>
       <c r="B25" t="n">
-        <v>4.93981616076828</v>
+        <v>4.96036888426732</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.04855858510608</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111.644753886519</v>
+        <v>113.108605273102</v>
       </c>
       <c r="B26" t="n">
-        <v>4.93981616076828</v>
+        <v>4.93048824157953</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.05701426303921</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111.644753886519</v>
+        <v>97.1877967855613</v>
       </c>
       <c r="B27" t="n">
-        <v>4.93981616076828</v>
+        <v>4.98318413179206</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.00531868090853</v>
+        <v>-0.904150101459737</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111.644753886519</v>
+        <v>109.925413148636</v>
       </c>
       <c r="B28" t="n">
-        <v>4.93981616076828</v>
+        <v>4.92022376210788</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.04133913867328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111.644753886519</v>
+        <v>97.6910071018496</v>
       </c>
       <c r="B29" t="n">
-        <v>4.93981616076828</v>
+        <v>4.91734783008424</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.00531868090853</v>
+        <v>-0.898632235064947</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111.644753886519</v>
+        <v>115.304298860181</v>
       </c>
       <c r="B30" t="n">
-        <v>4.93981616076828</v>
+        <v>4.89673661032079</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.05532850035468</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111.644753886519</v>
+        <v>106.060478305894</v>
       </c>
       <c r="B31" t="n">
-        <v>4.93981616076828</v>
+        <v>4.94177575777341</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.0288421135269</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111.644753886519</v>
+        <v>91.3069045591622</v>
       </c>
       <c r="B32" t="n">
-        <v>4.93981616076828</v>
+        <v>4.95470370994888</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.00531868090853</v>
+        <v>-0.886026962776847</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111.644753886519</v>
+        <v>111.891242189693</v>
       </c>
       <c r="B33" t="n">
-        <v>4.93981616076828</v>
+        <v>4.94939189584391</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.02861482581198</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111.644753886519</v>
+        <v>109.723383062292</v>
       </c>
       <c r="B34" t="n">
-        <v>4.93981616076828</v>
+        <v>4.99961660760036</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.10180940637833</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111.644753886519</v>
+        <v>98.9255342516378</v>
       </c>
       <c r="B35" t="n">
-        <v>4.93981616076828</v>
+        <v>5.03880731798409</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.05943797443735</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111.644753886519</v>
+        <v>98.5994685311209</v>
       </c>
       <c r="B36" t="n">
-        <v>4.93981616076828</v>
+        <v>5.02683972375311</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.0142839295761</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111.644753886519</v>
+        <v>97.9981407186851</v>
       </c>
       <c r="B37" t="n">
-        <v>4.93981616076828</v>
+        <v>5.05246966470684</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.03232106268348</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111.644753886519</v>
+        <v>95.0296705078718</v>
       </c>
       <c r="B38" t="n">
-        <v>4.93981616076828</v>
+        <v>5.0051778593905</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.00531868090853</v>
+        <v>-0.979316284383549</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111.644753886519</v>
+        <v>102.812233534766</v>
       </c>
       <c r="B39" t="n">
-        <v>4.93981616076828</v>
+        <v>4.93235796788022</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.00531868090853</v>
+        <v>-0.916915794211491</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111.644753886519</v>
+        <v>105.666795540133</v>
       </c>
       <c r="B40" t="n">
-        <v>4.93981616076828</v>
+        <v>4.99422834966965</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.06078021286263</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111.644753886519</v>
+        <v>97.5072676663936</v>
       </c>
       <c r="B41" t="n">
-        <v>4.93981616076828</v>
+        <v>5.07422237155002</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.02064687872284</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111.644753886519</v>
+        <v>100.295611555575</v>
       </c>
       <c r="B42" t="n">
-        <v>4.93981616076828</v>
+        <v>4.95038944335123</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.00531868090853</v>
+        <v>-0.963398758185386</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111.644753886519</v>
+        <v>90.1747972649045</v>
       </c>
       <c r="B43" t="n">
-        <v>4.93981616076828</v>
+        <v>5.03074375876737</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.00531868090853</v>
+        <v>-0.937836264784974</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111.644753886519</v>
+        <v>96.1592615448943</v>
       </c>
       <c r="B44" t="n">
-        <v>4.93981616076828</v>
+        <v>5.08738393544251</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.03994086904496</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111.644753886519</v>
+        <v>100.732686358116</v>
       </c>
       <c r="B45" t="n">
-        <v>4.93981616076828</v>
+        <v>4.98496734270628</v>
       </c>
       <c r="C45" t="n">
-        <v>-1.00531868090853</v>
+        <v>-0.970024712926662</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111.644753886519</v>
+        <v>96.6696323856891</v>
       </c>
       <c r="B46" t="n">
-        <v>4.93981616076828</v>
+        <v>4.97487133323413</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.00779535057271</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111.644753886519</v>
+        <v>103.462199885364</v>
       </c>
       <c r="B47" t="n">
-        <v>4.93981616076828</v>
+        <v>5.04566319965205</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.09591323599764</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111.644753886519</v>
+        <v>107.582123858938</v>
       </c>
       <c r="B48" t="n">
-        <v>4.93981616076828</v>
+        <v>4.98683650784374</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.01739989683056</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111.644753886519</v>
+        <v>100.270461272891</v>
       </c>
       <c r="B49" t="n">
-        <v>4.93981616076828</v>
+        <v>4.92517755040956</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.00531868090853</v>
+        <v>-0.924644042478054</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111.644753886519</v>
+        <v>110.151116534251</v>
       </c>
       <c r="B50" t="n">
-        <v>4.93981616076828</v>
+        <v>4.9811031786913</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.00531868090853</v>
+        <v>-1.08250010622102</v>
       </c>
     </row>
     <row r="51">
